--- a/rnaSample/rnaSample_hbrown_02.18.20.xlsx
+++ b/rnaSample/rnaSample_hbrown_02.18.20.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -81,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -110,6 +110,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -174,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,11 +193,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,7 +229,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,7 +246,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -282,28 +292,29 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="b">
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -352,10 +363,11 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="b">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -390,10 +402,11 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="b">
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
@@ -428,10 +441,11 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="b">
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -466,10 +480,11 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="b">
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -504,10 +519,11 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="b">
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
@@ -542,10 +558,11 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="b">
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
@@ -580,10 +597,11 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="b">
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
@@ -618,10 +636,11 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="b">
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
@@ -656,10 +675,11 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5" t="b">
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -694,10 +714,11 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="b">
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
@@ -732,10 +753,11 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5" t="b">
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -770,10 +792,11 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5" t="b">
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -808,10 +831,11 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="b">
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
@@ -846,10 +870,11 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="b">
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
@@ -884,10 +909,11 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5" t="b">
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
@@ -922,10 +948,11 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5" t="b">
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
@@ -960,10 +987,11 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="5" t="b">
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
@@ -998,10 +1026,11 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="5" t="b">
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
@@ -1036,10 +1065,11 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="5" t="b">
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
@@ -1074,10 +1104,11 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="5" t="b">
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
@@ -1112,10 +1143,11 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="5" t="b">
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
@@ -1150,10 +1182,11 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="5" t="b">
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
@@ -1188,10 +1221,11 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="5" t="b">
+      <c r="G25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
@@ -1226,10 +1260,11 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="5" t="b">
+      <c r="G26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
@@ -1264,10 +1299,11 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="5" t="b">
+      <c r="G27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">

--- a/rnaSample/rnaSample_hbrown_02.18.20.xlsx
+++ b/rnaSample/rnaSample_hbrown_02.18.20.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">01.29.20</t>
   </si>
   <si>
-    <t xml:space="preserve">BROWN</t>
+    <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
     <t xml:space="preserve">02.18.20</t>
@@ -81,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -110,12 +110,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,19 +187,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,10 +219,10 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.58"/>
@@ -246,7 +236,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -292,29 +282,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -363,11 +352,10 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -402,11 +390,10 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
@@ -441,11 +428,10 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -480,11 +466,10 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
@@ -519,11 +504,10 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
@@ -558,11 +542,10 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
@@ -597,11 +580,10 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
@@ -636,11 +618,10 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
@@ -675,11 +656,10 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
@@ -714,11 +694,10 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
@@ -753,11 +732,10 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -792,11 +770,10 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -831,11 +808,10 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
@@ -870,11 +846,10 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
@@ -909,11 +884,10 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
@@ -948,11 +922,10 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
@@ -987,11 +960,10 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
@@ -1026,11 +998,10 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
@@ -1065,11 +1036,10 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
@@ -1104,11 +1074,10 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
@@ -1143,11 +1112,10 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
@@ -1182,11 +1150,10 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
@@ -1221,11 +1188,10 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
@@ -1260,11 +1226,10 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
@@ -1299,11 +1264,10 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">

--- a/rnaSample/rnaSample_hbrown_02.18.20.xlsx
+++ b/rnaSample/rnaSample_hbrown_02.18.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB49D9A-5F14-D14F-8774-E2020371B5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891BBE5-19B2-C140-89CF-2CE97CF74CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="14740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -62,14 +62,14 @@
   <si>
     <t>TRIzol</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -134,7 +134,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="H2" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,8 +528,8 @@
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <v>0</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -572,8 +572,8 @@
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -598,8 +598,8 @@
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -624,8 +624,8 @@
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -650,8 +650,8 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -676,8 +676,8 @@
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -702,8 +702,8 @@
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <v>0</v>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -728,8 +728,8 @@
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -754,8 +754,8 @@
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -780,8 +780,8 @@
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <v>0</v>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -806,8 +806,8 @@
       <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="b">
-        <v>0</v>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -832,8 +832,8 @@
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <v>0</v>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -858,8 +858,8 @@
       <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -884,8 +884,8 @@
       <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -910,8 +910,8 @@
       <c r="G16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -936,8 +936,8 @@
       <c r="G17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,8 +962,8 @@
       <c r="G18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="5" t="b">
-        <v>0</v>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -988,8 +988,8 @@
       <c r="G19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <v>0</v>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1014,8 +1014,8 @@
       <c r="G20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5" t="b">
-        <v>0</v>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1040,8 +1040,8 @@
       <c r="G21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="b">
-        <v>0</v>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1066,8 +1066,8 @@
       <c r="G22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1092,8 +1092,8 @@
       <c r="G23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5" t="b">
-        <v>0</v>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1118,8 +1118,8 @@
       <c r="G24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="5" t="b">
-        <v>0</v>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1144,8 +1144,8 @@
       <c r="G25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="5" t="b">
-        <v>0</v>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1170,8 +1170,8 @@
       <c r="G26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="5" t="b">
-        <v>0</v>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1196,8 +1196,8 @@
       <c r="G27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="5" t="b">
-        <v>0</v>
+      <c r="H27" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
